--- a/Load/ontology/Gates/crypto/crypto_variableMapWorking.xlsx
+++ b/Load/ontology/Gates/crypto/crypto_variableMapWorking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swever/Documents/GitHub/ApiCommonData/Load/ontology/Gates/crypto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA7E4DA-A840-3049-A841-D8BADBCCC3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F178C5DE-EF07-1442-962E-7898F27A87BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6700" yWindow="500" windowWidth="19760" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Load/ontology/Gates/crypto/crypto_variableMapWorking.xlsx
+++ b/Load/ontology/Gates/crypto/crypto_variableMapWorking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swever/Documents/GitHub/ApiCommonData/Load/ontology/Gates/crypto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20279A0E-A4E1-6447-B179-D6D2E4857CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72C772D-71E7-C043-9F20-477D6DB2A4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1240" windowWidth="18600" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8520" yWindow="2680" windowWidth="18600" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8969" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8979" uniqueCount="3300">
   <si>
     <t>colOrder</t>
   </si>
@@ -11025,6 +11025,21 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Nebulizer treatment start date</t>
+  </si>
+  <si>
+    <t>Freq Nebulizer used</t>
+  </si>
+  <si>
+    <t>Day of neb use</t>
+  </si>
+  <si>
+    <t>Frequency of nebulizer use</t>
+  </si>
+  <si>
+    <t>Day of nebulizer use</t>
   </si>
 </sst>
 </file>
@@ -11496,13 +11511,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AB1080"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E1080" sqref="E1080"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11603,7 +11617,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>42</v>
       </c>
@@ -11632,7 +11646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -11661,7 +11675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>23</v>
       </c>
@@ -11690,7 +11704,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>27</v>
       </c>
@@ -11719,7 +11733,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>46</v>
       </c>
@@ -11748,7 +11762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -11777,7 +11791,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -11806,7 +11820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>13</v>
       </c>
@@ -11835,7 +11849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -11864,7 +11878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>41</v>
       </c>
@@ -11893,7 +11907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>43</v>
       </c>
@@ -11922,7 +11936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>25</v>
       </c>
@@ -11951,7 +11965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>9</v>
       </c>
@@ -11980,7 +11994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>35</v>
       </c>
@@ -12012,7 +12026,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>36</v>
       </c>
@@ -12044,7 +12058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>37</v>
       </c>
@@ -12076,7 +12090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>38</v>
       </c>
@@ -12108,7 +12122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>39</v>
       </c>
@@ -12140,7 +12154,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>44</v>
       </c>
@@ -12172,7 +12186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>45</v>
       </c>
@@ -12204,7 +12218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>47</v>
       </c>
@@ -12236,7 +12250,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8</v>
       </c>
@@ -12268,7 +12282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>26</v>
       </c>
@@ -12300,7 +12314,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>28</v>
       </c>
@@ -12332,7 +12346,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>30</v>
       </c>
@@ -12364,7 +12378,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>32</v>
       </c>
@@ -12396,7 +12410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>34</v>
       </c>
@@ -12428,7 +12442,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -12460,7 +12474,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -12492,7 +12506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>14</v>
       </c>
@@ -12524,7 +12538,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>16</v>
       </c>
@@ -12556,7 +12570,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>18</v>
       </c>
@@ -12588,7 +12602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20</v>
       </c>
@@ -12620,7 +12634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>22</v>
       </c>
@@ -12652,7 +12666,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>24</v>
       </c>
@@ -12684,7 +12698,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>29</v>
       </c>
@@ -12716,7 +12730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>33</v>
       </c>
@@ -12748,7 +12762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11</v>
       </c>
@@ -12780,7 +12794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>15</v>
       </c>
@@ -12812,7 +12826,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>17</v>
       </c>
@@ -12844,7 +12858,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>21</v>
       </c>
@@ -12876,7 +12890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>49</v>
       </c>
@@ -12905,7 +12919,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -12934,7 +12948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -12963,7 +12977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -12995,7 +13009,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -13024,7 +13038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -13053,7 +13067,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5</v>
       </c>
@@ -13082,7 +13096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>6</v>
       </c>
@@ -13111,7 +13125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -13140,7 +13154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>11</v>
       </c>
@@ -13188,7 +13202,7 @@
       <c r="AA52"/>
       <c r="AB52"/>
     </row>
-    <row r="53" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>14</v>
       </c>
@@ -13236,7 +13250,7 @@
       <c r="AA53"/>
       <c r="AB53"/>
     </row>
-    <row r="54" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>15</v>
       </c>
@@ -13265,7 +13279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>16</v>
       </c>
@@ -13294,7 +13308,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>17</v>
       </c>
@@ -13323,7 +13337,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>13</v>
       </c>
@@ -13352,7 +13366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>12</v>
       </c>
@@ -13381,7 +13395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>19</v>
       </c>
@@ -13410,7 +13424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>18</v>
       </c>
@@ -13439,7 +13453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -13468,7 +13482,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9</v>
       </c>
@@ -13497,7 +13511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -13526,7 +13540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -13555,7 +13569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -13584,7 +13598,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>19</v>
       </c>
@@ -13613,7 +13627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>26</v>
       </c>
@@ -13642,7 +13656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>24</v>
       </c>
@@ -13671,7 +13685,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>8</v>
       </c>
@@ -13700,7 +13714,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>25</v>
       </c>
@@ -13729,7 +13743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>33</v>
       </c>
@@ -13758,7 +13772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>32</v>
       </c>
@@ -13787,7 +13801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>31</v>
       </c>
@@ -13816,7 +13830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>30</v>
       </c>
@@ -13845,7 +13859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>23</v>
       </c>
@@ -13874,7 +13888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>28</v>
       </c>
@@ -13903,7 +13917,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21</v>
       </c>
@@ -13932,7 +13946,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15</v>
       </c>
@@ -13961,7 +13975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20</v>
       </c>
@@ -13990,7 +14004,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>9</v>
       </c>
@@ -14019,7 +14033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>27</v>
       </c>
@@ -14048,7 +14062,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>17</v>
       </c>
@@ -14077,7 +14091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>18</v>
       </c>
@@ -14106,7 +14120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>10</v>
       </c>
@@ -14135,7 +14149,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>29</v>
       </c>
@@ -14164,7 +14178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>16</v>
       </c>
@@ -14193,7 +14207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>12</v>
       </c>
@@ -14222,7 +14236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>11</v>
       </c>
@@ -14251,7 +14265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>13</v>
       </c>
@@ -14280,7 +14294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>14</v>
       </c>
@@ -14309,7 +14323,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>6</v>
       </c>
@@ -14338,7 +14352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>22</v>
       </c>
@@ -14370,7 +14384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -14402,7 +14416,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -14434,7 +14448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3</v>
       </c>
@@ -14466,7 +14480,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>2</v>
       </c>
@@ -14495,7 +14509,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>9</v>
       </c>
@@ -14527,7 +14541,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -14559,7 +14573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5</v>
       </c>
@@ -14591,7 +14605,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>6</v>
       </c>
@@ -14626,7 +14640,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -14655,7 +14669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
@@ -14687,7 +14701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -14713,7 +14727,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -14745,7 +14759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -14777,7 +14791,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>6</v>
       </c>
@@ -14812,7 +14826,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -14841,7 +14855,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
@@ -14870,7 +14884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2</v>
       </c>
@@ -14899,7 +14913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7</v>
       </c>
@@ -14931,7 +14945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -14960,7 +14974,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -14995,7 +15009,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4</v>
       </c>
@@ -15024,7 +15038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>10</v>
       </c>
@@ -15053,7 +15067,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9</v>
       </c>
@@ -15082,7 +15096,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -15111,7 +15125,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7</v>
       </c>
@@ -15143,7 +15157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5</v>
       </c>
@@ -15175,7 +15189,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -15210,7 +15224,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>4</v>
       </c>
@@ -15239,7 +15253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>9</v>
       </c>
@@ -15268,7 +15282,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -15297,7 +15311,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7</v>
       </c>
@@ -15326,7 +15340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5</v>
       </c>
@@ -15355,7 +15369,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -15390,7 +15404,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4</v>
       </c>
@@ -15420,7 +15434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -15452,7 +15466,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>9</v>
       </c>
@@ -15484,7 +15498,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -15516,7 +15530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -15548,7 +15562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2</v>
       </c>
@@ -15577,7 +15591,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>7</v>
       </c>
@@ -15609,7 +15623,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>9</v>
       </c>
@@ -15641,7 +15655,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5</v>
       </c>
@@ -15670,7 +15684,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>6</v>
       </c>
@@ -15705,7 +15719,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>4</v>
       </c>
@@ -15734,7 +15748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2</v>
       </c>
@@ -15763,7 +15777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -15793,7 +15807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>20</v>
       </c>
@@ -15822,7 +15836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>18</v>
       </c>
@@ -15851,7 +15865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>19</v>
       </c>
@@ -15880,7 +15894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>23</v>
       </c>
@@ -15909,7 +15923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21</v>
       </c>
@@ -15938,7 +15952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>22</v>
       </c>
@@ -15964,7 +15978,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>16</v>
       </c>
@@ -15993,7 +16007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>17</v>
       </c>
@@ -16022,7 +16036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>9</v>
       </c>
@@ -16051,7 +16065,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>11</v>
       </c>
@@ -16080,7 +16094,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>13</v>
       </c>
@@ -16109,7 +16123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>14</v>
       </c>
@@ -16138,7 +16152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>12</v>
       </c>
@@ -16167,7 +16181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>15</v>
       </c>
@@ -16196,7 +16210,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>24</v>
       </c>
@@ -16225,7 +16239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>25</v>
       </c>
@@ -16254,7 +16268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>10</v>
       </c>
@@ -16283,7 +16297,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -16312,7 +16326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -16347,7 +16361,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>4</v>
       </c>
@@ -16376,7 +16390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>2</v>
       </c>
@@ -16405,7 +16419,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>7</v>
       </c>
@@ -16437,7 +16451,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>20</v>
       </c>
@@ -16469,7 +16483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>21</v>
       </c>
@@ -16501,7 +16515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>22</v>
       </c>
@@ -16533,7 +16547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>16</v>
       </c>
@@ -16565,7 +16579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>17</v>
       </c>
@@ -16597,7 +16611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>18</v>
       </c>
@@ -16629,7 +16643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>19</v>
       </c>
@@ -16661,7 +16675,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9</v>
       </c>
@@ -16693,7 +16707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>11</v>
       </c>
@@ -16725,7 +16739,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>12</v>
       </c>
@@ -16757,7 +16771,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>13</v>
       </c>
@@ -16789,7 +16803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>14</v>
       </c>
@@ -16821,7 +16835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>15</v>
       </c>
@@ -16853,7 +16867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>23</v>
       </c>
@@ -16885,7 +16899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>24</v>
       </c>
@@ -16917,7 +16931,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>25</v>
       </c>
@@ -16949,7 +16963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>10</v>
       </c>
@@ -16981,7 +16995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>6</v>
       </c>
@@ -17013,7 +17027,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>8</v>
       </c>
@@ -17045,7 +17059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>4</v>
       </c>
@@ -17077,7 +17091,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>2</v>
       </c>
@@ -17106,7 +17120,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -17138,7 +17152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>8</v>
       </c>
@@ -17170,7 +17184,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>6</v>
       </c>
@@ -17199,7 +17213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>4</v>
       </c>
@@ -17231,7 +17245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>2</v>
       </c>
@@ -17260,7 +17274,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -17292,7 +17306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>9</v>
       </c>
@@ -17324,7 +17338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5</v>
       </c>
@@ -17353,7 +17367,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>6</v>
       </c>
@@ -17388,7 +17402,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -17417,7 +17431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>2</v>
       </c>
@@ -17446,7 +17460,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -17475,7 +17489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>9</v>
       </c>
@@ -17504,7 +17518,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5</v>
       </c>
@@ -17533,7 +17547,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="196" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>6</v>
       </c>
@@ -17568,7 +17582,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>4</v>
       </c>
@@ -17597,7 +17611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>2</v>
       </c>
@@ -17626,7 +17640,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>8</v>
       </c>
@@ -17655,7 +17669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>10</v>
       </c>
@@ -17684,7 +17698,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>14</v>
       </c>
@@ -17713,7 +17727,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5</v>
       </c>
@@ -17742,7 +17756,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>6</v>
       </c>
@@ -17777,7 +17791,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>4</v>
       </c>
@@ -17806,7 +17820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -17838,7 +17852,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="206" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>9</v>
       </c>
@@ -17870,7 +17884,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="207" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -17899,7 +17913,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>7</v>
       </c>
@@ -17931,7 +17945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="209" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5</v>
       </c>
@@ -17960,7 +17974,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>6</v>
       </c>
@@ -17995,7 +18009,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>4</v>
       </c>
@@ -18024,7 +18038,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10</v>
       </c>
@@ -18056,7 +18070,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>9</v>
       </c>
@@ -18088,7 +18102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>2</v>
       </c>
@@ -18117,7 +18131,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>6</v>
       </c>
@@ -18146,7 +18160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>7</v>
       </c>
@@ -18175,7 +18189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -18207,7 +18221,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4</v>
       </c>
@@ -18239,7 +18253,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2</v>
       </c>
@@ -18268,7 +18282,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>12</v>
       </c>
@@ -18300,7 +18314,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>13</v>
       </c>
@@ -18332,7 +18346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>14</v>
       </c>
@@ -18364,7 +18378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>8</v>
       </c>
@@ -18393,7 +18407,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5</v>
       </c>
@@ -18422,7 +18436,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="225" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>4</v>
       </c>
@@ -18451,7 +18465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>6</v>
       </c>
@@ -18480,7 +18494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3</v>
       </c>
@@ -18512,7 +18526,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2</v>
       </c>
@@ -18541,7 +18555,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>7</v>
       </c>
@@ -18573,7 +18587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>9</v>
       </c>
@@ -18605,7 +18619,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5</v>
       </c>
@@ -18634,7 +18648,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="232" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>6</v>
       </c>
@@ -18669,7 +18683,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="233" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4</v>
       </c>
@@ -18698,7 +18712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10</v>
       </c>
@@ -18730,7 +18744,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>11</v>
       </c>
@@ -18762,7 +18776,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="236" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -18791,7 +18805,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>6</v>
       </c>
@@ -18820,7 +18834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -18849,7 +18863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10</v>
       </c>
@@ -18878,7 +18892,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11</v>
       </c>
@@ -18907,7 +18921,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="241" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>7</v>
       </c>
@@ -18936,7 +18950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -18968,7 +18982,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="243" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5</v>
       </c>
@@ -18997,7 +19011,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>4</v>
       </c>
@@ -19029,7 +19043,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>9</v>
       </c>
@@ -19061,7 +19075,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="246" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -19090,7 +19104,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7</v>
       </c>
@@ -19122,7 +19136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -19151,7 +19165,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="249" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>6</v>
       </c>
@@ -19186,7 +19200,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="250" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>5</v>
       </c>
@@ -19215,7 +19229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -19263,7 +19277,7 @@
       <c r="AA251" s="11"/>
       <c r="AB251" s="11"/>
     </row>
-    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>2</v>
       </c>
@@ -19292,7 +19306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7</v>
       </c>
@@ -19324,7 +19338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="254" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>9</v>
       </c>
@@ -19356,7 +19370,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="255" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>5</v>
       </c>
@@ -19385,7 +19399,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>6</v>
       </c>
@@ -19420,7 +19434,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>4</v>
       </c>
@@ -19449,7 +19463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>10</v>
       </c>
@@ -19478,7 +19492,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>11</v>
       </c>
@@ -19507,7 +19521,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>3</v>
       </c>
@@ -19555,7 +19569,7 @@
       <c r="AA260" s="11"/>
       <c r="AB260" s="11"/>
     </row>
-    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -19584,7 +19598,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>7</v>
       </c>
@@ -19616,7 +19630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>17</v>
       </c>
@@ -19648,7 +19662,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>12</v>
       </c>
@@ -19680,7 +19694,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>16</v>
       </c>
@@ -19712,7 +19726,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>6</v>
       </c>
@@ -19741,7 +19755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>18</v>
       </c>
@@ -19770,7 +19784,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>19</v>
       </c>
@@ -19799,7 +19813,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3</v>
       </c>
@@ -19831,7 +19845,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -19860,7 +19874,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>4</v>
       </c>
@@ -19892,7 +19906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3</v>
       </c>
@@ -19924,7 +19938,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="273" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2</v>
       </c>
@@ -19953,7 +19967,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="274" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>7</v>
       </c>
@@ -19985,7 +19999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>5</v>
       </c>
@@ -20014,7 +20028,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="276" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>6</v>
       </c>
@@ -20049,7 +20063,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>4</v>
       </c>
@@ -20078,7 +20092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>9</v>
       </c>
@@ -20107,7 +20121,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3</v>
       </c>
@@ -20139,7 +20153,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>2</v>
       </c>
@@ -20168,7 +20182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7</v>
       </c>
@@ -20200,7 +20214,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>5</v>
       </c>
@@ -20229,7 +20243,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>6</v>
       </c>
@@ -20264,7 +20278,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>4</v>
       </c>
@@ -20293,7 +20307,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>9</v>
       </c>
@@ -20322,7 +20336,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -20354,7 +20368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>33</v>
       </c>
@@ -20386,7 +20400,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>34</v>
       </c>
@@ -20418,7 +20432,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>70</v>
       </c>
@@ -20450,7 +20464,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>49</v>
       </c>
@@ -20482,7 +20496,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>50</v>
       </c>
@@ -20514,7 +20528,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>51</v>
       </c>
@@ -20546,7 +20560,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>52</v>
       </c>
@@ -20578,7 +20592,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>53</v>
       </c>
@@ -20610,7 +20624,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>54</v>
       </c>
@@ -20642,7 +20656,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>55</v>
       </c>
@@ -20674,7 +20688,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>68</v>
       </c>
@@ -20706,7 +20720,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>10</v>
       </c>
@@ -20738,7 +20752,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>12</v>
       </c>
@@ -20770,7 +20784,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>71</v>
       </c>
@@ -20802,7 +20816,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>73</v>
       </c>
@@ -20834,7 +20848,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>7</v>
       </c>
@@ -20866,7 +20880,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>6</v>
       </c>
@@ -20898,7 +20912,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>29</v>
       </c>
@@ -20930,7 +20944,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>30</v>
       </c>
@@ -20962,7 +20976,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>31</v>
       </c>
@@ -20994,7 +21008,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>8</v>
       </c>
@@ -21026,7 +21040,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>32</v>
       </c>
@@ -21058,7 +21072,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>36</v>
       </c>
@@ -21090,7 +21104,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>35</v>
       </c>
@@ -21122,7 +21136,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>37</v>
       </c>
@@ -21154,7 +21168,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>38</v>
       </c>
@@ -21186,7 +21200,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>39</v>
       </c>
@@ -21218,7 +21232,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>40</v>
       </c>
@@ -21250,7 +21264,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>45</v>
       </c>
@@ -21282,7 +21296,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>46</v>
       </c>
@@ -21314,7 +21328,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>41</v>
       </c>
@@ -21346,7 +21360,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>42</v>
       </c>
@@ -21378,7 +21392,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>43</v>
       </c>
@@ -21410,7 +21424,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>48</v>
       </c>
@@ -21442,7 +21456,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>57</v>
       </c>
@@ -21474,7 +21488,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>58</v>
       </c>
@@ -21506,7 +21520,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>59</v>
       </c>
@@ -21538,7 +21552,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>61</v>
       </c>
@@ -21570,7 +21584,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>62</v>
       </c>
@@ -21602,7 +21616,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>65</v>
       </c>
@@ -21634,7 +21648,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>67</v>
       </c>
@@ -21666,7 +21680,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>69</v>
       </c>
@@ -21698,7 +21712,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>9</v>
       </c>
@@ -21730,7 +21744,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>11</v>
       </c>
@@ -21762,7 +21776,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>13</v>
       </c>
@@ -21794,7 +21808,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>19</v>
       </c>
@@ -21826,7 +21840,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="333" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>18</v>
       </c>
@@ -21858,7 +21872,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="334" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>20</v>
       </c>
@@ -21890,7 +21904,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="335" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>21</v>
       </c>
@@ -21922,7 +21936,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="336" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>14</v>
       </c>
@@ -21954,7 +21968,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>22</v>
       </c>
@@ -21986,7 +22000,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>23</v>
       </c>
@@ -22018,7 +22032,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>15</v>
       </c>
@@ -22050,7 +22064,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>16</v>
       </c>
@@ -22082,7 +22096,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>17</v>
       </c>
@@ -22114,7 +22128,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>72</v>
       </c>
@@ -22146,7 +22160,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>24</v>
       </c>
@@ -22178,7 +22192,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>77</v>
       </c>
@@ -22210,7 +22224,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>80</v>
       </c>
@@ -22242,7 +22256,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>81</v>
       </c>
@@ -22274,7 +22288,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>82</v>
       </c>
@@ -22306,7 +22320,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>83</v>
       </c>
@@ -22338,7 +22352,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>84</v>
       </c>
@@ -22370,7 +22384,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>2</v>
       </c>
@@ -22399,7 +22413,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>5</v>
       </c>
@@ -22431,7 +22445,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>25</v>
       </c>
@@ -22463,7 +22477,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>26</v>
       </c>
@@ -22495,7 +22509,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>66</v>
       </c>
@@ -22527,7 +22541,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>27</v>
       </c>
@@ -22559,7 +22573,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="356" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>28</v>
       </c>
@@ -22591,7 +22605,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>4</v>
       </c>
@@ -22626,7 +22640,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="358" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>85</v>
       </c>
@@ -22658,7 +22672,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>86</v>
       </c>
@@ -22690,7 +22704,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>87</v>
       </c>
@@ -22722,7 +22736,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>88</v>
       </c>
@@ -22754,7 +22768,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>89</v>
       </c>
@@ -22786,7 +22800,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="363" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>90</v>
       </c>
@@ -22818,7 +22832,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>91</v>
       </c>
@@ -22850,7 +22864,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>99</v>
       </c>
@@ -22882,7 +22896,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="366" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>44</v>
       </c>
@@ -22917,7 +22931,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="367" spans="1:19" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>47</v>
       </c>
@@ -22948,7 +22962,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="368" spans="1:19" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>56</v>
       </c>
@@ -22981,7 +22995,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="369" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>60</v>
       </c>
@@ -23013,7 +23027,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="370" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>63</v>
       </c>
@@ -23045,7 +23059,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="371" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>64</v>
       </c>
@@ -23077,7 +23091,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="372" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>92</v>
       </c>
@@ -23109,7 +23123,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="373" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>102</v>
       </c>
@@ -23141,7 +23155,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>93</v>
       </c>
@@ -23173,7 +23187,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="375" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>94</v>
       </c>
@@ -23205,7 +23219,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>95</v>
       </c>
@@ -23237,7 +23251,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>96</v>
       </c>
@@ -23269,7 +23283,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="378" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>78</v>
       </c>
@@ -23304,7 +23318,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="379" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>97</v>
       </c>
@@ -23339,7 +23353,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="380" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>74</v>
       </c>
@@ -23374,7 +23388,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="381" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>75</v>
       </c>
@@ -23409,7 +23423,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="382" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>76</v>
       </c>
@@ -23444,7 +23458,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="383" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>101</v>
       </c>
@@ -23479,7 +23493,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="384" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>79</v>
       </c>
@@ -23511,7 +23525,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="385" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>100</v>
       </c>
@@ -23546,7 +23560,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="386" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>98</v>
       </c>
@@ -23581,7 +23595,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="387" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>9</v>
       </c>
@@ -23613,7 +23627,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="388" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>2</v>
       </c>
@@ -23642,7 +23656,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="389" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>7</v>
       </c>
@@ -23674,7 +23688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="390" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>4</v>
       </c>
@@ -23703,7 +23717,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="391" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>6</v>
       </c>
@@ -23738,7 +23752,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="392" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>5</v>
       </c>
@@ -23767,7 +23781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="393" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3</v>
       </c>
@@ -23815,7 +23829,7 @@
       <c r="AA393" s="11"/>
       <c r="AB393" s="11"/>
     </row>
-    <row r="394" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>4</v>
       </c>
@@ -23844,7 +23858,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="395" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>2</v>
       </c>
@@ -23873,7 +23887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>24</v>
       </c>
@@ -23902,7 +23916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>21</v>
       </c>
@@ -23931,7 +23945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="398" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>22</v>
       </c>
@@ -23960,7 +23974,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>23</v>
       </c>
@@ -23989,7 +24003,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="400" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>6</v>
       </c>
@@ -24018,7 +24032,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="401" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>9</v>
       </c>
@@ -24047,7 +24061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="402" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>11</v>
       </c>
@@ -24076,7 +24090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="403" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>13</v>
       </c>
@@ -24105,7 +24119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="404" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>7</v>
       </c>
@@ -24134,7 +24148,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="405" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>8</v>
       </c>
@@ -24163,7 +24177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="406" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>5</v>
       </c>
@@ -24192,7 +24206,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="407" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3</v>
       </c>
@@ -24221,7 +24235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>10</v>
       </c>
@@ -24253,7 +24267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="409" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>12</v>
       </c>
@@ -24285,7 +24299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>16</v>
       </c>
@@ -24317,7 +24331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="411" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>18</v>
       </c>
@@ -24349,7 +24363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="412" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>20</v>
       </c>
@@ -24381,7 +24395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>15</v>
       </c>
@@ -24413,7 +24427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="414" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>17</v>
       </c>
@@ -24445,7 +24459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="415" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>19</v>
       </c>
@@ -24477,7 +24491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>4</v>
       </c>
@@ -24506,7 +24520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>2</v>
       </c>
@@ -24535,7 +24549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3</v>
       </c>
@@ -24567,7 +24581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>8</v>
       </c>
@@ -24596,7 +24610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>6</v>
       </c>
@@ -24625,7 +24639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>7</v>
       </c>
@@ -24654,7 +24668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>2</v>
       </c>
@@ -24683,7 +24697,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3</v>
       </c>
@@ -24715,7 +24729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>5</v>
       </c>
@@ -24744,7 +24758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>15</v>
       </c>
@@ -24776,7 +24790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>11</v>
       </c>
@@ -24805,7 +24819,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>10</v>
       </c>
@@ -24834,7 +24848,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>9</v>
       </c>
@@ -24863,7 +24877,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>16</v>
       </c>
@@ -24892,7 +24906,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>14</v>
       </c>
@@ -24921,7 +24935,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>13</v>
       </c>
@@ -24950,7 +24964,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>12</v>
       </c>
@@ -24979,7 +24993,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>17</v>
       </c>
@@ -25008,7 +25022,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>19</v>
       </c>
@@ -25037,7 +25051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>18</v>
       </c>
@@ -25066,7 +25080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>4</v>
       </c>
@@ -25137,8 +25151,20 @@
       <c r="D438" t="s">
         <v>3287</v>
       </c>
+      <c r="F438" t="s">
+        <v>3299</v>
+      </c>
+      <c r="H438" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I438" t="s">
+        <v>3223</v>
+      </c>
       <c r="J438" t="s">
         <v>2376</v>
+      </c>
+      <c r="K438" t="s">
+        <v>3297</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
@@ -25154,8 +25180,20 @@
       <c r="D439" t="s">
         <v>3287</v>
       </c>
+      <c r="F439" t="s">
+        <v>3298</v>
+      </c>
+      <c r="H439" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I439" t="s">
+        <v>3223</v>
+      </c>
       <c r="J439" t="s">
         <v>2376</v>
+      </c>
+      <c r="K439" t="s">
+        <v>3296</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -25171,6 +25209,15 @@
       <c r="D440" t="s">
         <v>3287</v>
       </c>
+      <c r="F440" t="s">
+        <v>3295</v>
+      </c>
+      <c r="H440" t="s">
+        <v>3224</v>
+      </c>
+      <c r="I440" t="s">
+        <v>3223</v>
+      </c>
       <c r="J440" t="s">
         <v>2376</v>
       </c>
@@ -25181,7 +25228,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>2</v>
       </c>
@@ -25210,7 +25257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>5</v>
       </c>
@@ -25239,7 +25286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>6</v>
       </c>
@@ -25268,7 +25315,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>10</v>
       </c>
@@ -25297,7 +25344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="445" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>27</v>
       </c>
@@ -25326,7 +25373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="446" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>30</v>
       </c>
@@ -25355,7 +25402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="447" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>33</v>
       </c>
@@ -25384,7 +25431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>36</v>
       </c>
@@ -25413,7 +25460,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>39</v>
       </c>
@@ -25442,7 +25489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="450" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>15</v>
       </c>
@@ -25471,7 +25518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="451" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>18</v>
       </c>
@@ -25500,7 +25547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>21</v>
       </c>
@@ -25529,7 +25576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>24</v>
       </c>
@@ -25555,7 +25602,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="454" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>8</v>
       </c>
@@ -25584,7 +25631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="455" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>25</v>
       </c>
@@ -25613,7 +25660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="456" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>28</v>
       </c>
@@ -25642,7 +25689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="457" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>31</v>
       </c>
@@ -25671,7 +25718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="458" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>34</v>
       </c>
@@ -25700,7 +25747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>37</v>
       </c>
@@ -25729,7 +25776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>13</v>
       </c>
@@ -25758,7 +25805,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="461" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>16</v>
       </c>
@@ -25787,7 +25834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>19</v>
       </c>
@@ -25816,7 +25863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>22</v>
       </c>
@@ -25842,7 +25889,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="464" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>9</v>
       </c>
@@ -25871,7 +25918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="465" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>29</v>
       </c>
@@ -25900,7 +25947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="466" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>32</v>
       </c>
@@ -25929,7 +25976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>35</v>
       </c>
@@ -25958,7 +26005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="468" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>38</v>
       </c>
@@ -25987,7 +26034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>14</v>
       </c>
@@ -26016,7 +26063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>17</v>
       </c>
@@ -26045,7 +26092,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="471" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>20</v>
       </c>
@@ -26074,7 +26121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="472" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>23</v>
       </c>
@@ -26100,7 +26147,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="473" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>26</v>
       </c>
@@ -26129,7 +26176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>11</v>
       </c>
@@ -26158,7 +26205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>7</v>
       </c>
@@ -26187,7 +26234,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>40</v>
       </c>
@@ -26216,7 +26263,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>42</v>
       </c>
@@ -26245,7 +26292,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3</v>
       </c>
@@ -26274,7 +26321,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>4</v>
       </c>
@@ -26300,7 +26347,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>12</v>
       </c>
@@ -26332,7 +26379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>43</v>
       </c>
@@ -26364,7 +26411,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>2</v>
       </c>
@@ -26393,7 +26440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>6</v>
       </c>
@@ -26420,7 +26467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>7</v>
       </c>
@@ -26449,7 +26496,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>11</v>
       </c>
@@ -26478,7 +26525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>28</v>
       </c>
@@ -26507,7 +26554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>31</v>
       </c>
@@ -26536,7 +26583,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>34</v>
       </c>
@@ -26565,7 +26612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>37</v>
       </c>
@@ -26594,7 +26641,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>40</v>
       </c>
@@ -26623,7 +26670,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>16</v>
       </c>
@@ -26652,7 +26699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>19</v>
       </c>
@@ -26681,7 +26728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>22</v>
       </c>
@@ -26707,7 +26754,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>25</v>
       </c>
@@ -26736,7 +26783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>9</v>
       </c>
@@ -26765,7 +26812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>26</v>
       </c>
@@ -26794,7 +26841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>29</v>
       </c>
@@ -26823,7 +26870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>32</v>
       </c>
@@ -26852,7 +26899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>35</v>
       </c>
@@ -26881,7 +26928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>38</v>
       </c>
@@ -26910,7 +26957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>14</v>
       </c>
@@ -26939,7 +26986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>17</v>
       </c>
@@ -26968,7 +27015,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="503" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>20</v>
       </c>
@@ -26994,7 +27041,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="504" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>23</v>
       </c>
@@ -27020,7 +27067,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="505" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>10</v>
       </c>
@@ -27049,7 +27096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>30</v>
       </c>
@@ -27078,7 +27125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="507" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>33</v>
       </c>
@@ -27107,7 +27154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>36</v>
       </c>
@@ -27136,7 +27183,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>39</v>
       </c>
@@ -27165,7 +27212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>15</v>
       </c>
@@ -27194,7 +27241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="511" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>18</v>
       </c>
@@ -27223,7 +27270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="512" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>21</v>
       </c>
@@ -27252,7 +27299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="513" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>24</v>
       </c>
@@ -27278,7 +27325,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>27</v>
       </c>
@@ -27307,7 +27354,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="515" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>8</v>
       </c>
@@ -27336,7 +27383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="516" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>42</v>
       </c>
@@ -27365,7 +27412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="517" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>3</v>
       </c>
@@ -27394,7 +27441,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="518" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>5</v>
       </c>
@@ -27418,7 +27465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="519" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>12</v>
       </c>
@@ -27450,7 +27497,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="520" spans="1:12" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>13</v>
       </c>
@@ -27482,7 +27529,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="521" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>43</v>
       </c>
@@ -27514,7 +27561,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="522" spans="1:12" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>44</v>
       </c>
@@ -27546,7 +27593,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="523" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>6</v>
       </c>
@@ -27575,7 +27622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="524" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>2</v>
       </c>
@@ -27604,7 +27651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="525" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>5</v>
       </c>
@@ -27633,7 +27680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="526" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>14</v>
       </c>
@@ -27662,7 +27709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="527" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>18</v>
       </c>
@@ -27694,7 +27741,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="528" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>19</v>
       </c>
@@ -27726,7 +27773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>9</v>
       </c>
@@ -27755,7 +27802,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>7</v>
       </c>
@@ -27787,7 +27834,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>32</v>
       </c>
@@ -27819,7 +27866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>11</v>
       </c>
@@ -27848,7 +27895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>13</v>
       </c>
@@ -27877,7 +27924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>12</v>
       </c>
@@ -27906,7 +27953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>10</v>
       </c>
@@ -27935,7 +27982,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>15</v>
       </c>
@@ -27964,7 +28011,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>31</v>
       </c>
@@ -27996,7 +28043,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>3</v>
       </c>
@@ -28025,7 +28072,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>4</v>
       </c>
@@ -28054,7 +28101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>30</v>
       </c>
@@ -28086,7 +28133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>20</v>
       </c>
@@ -28118,7 +28165,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>8</v>
       </c>
@@ -28147,7 +28194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>16</v>
       </c>
@@ -28176,7 +28223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>17</v>
       </c>
@@ -28205,7 +28252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>21</v>
       </c>
@@ -28234,7 +28281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>22</v>
       </c>
@@ -28263,7 +28310,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>23</v>
       </c>
@@ -28292,7 +28339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>28</v>
       </c>
@@ -28321,7 +28368,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>26</v>
       </c>
@@ -28350,7 +28397,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>24</v>
       </c>
@@ -28379,7 +28426,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>2</v>
       </c>
@@ -28408,7 +28455,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>3</v>
       </c>
@@ -28437,7 +28484,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>6</v>
       </c>
@@ -28469,7 +28516,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>5</v>
       </c>
@@ -28501,7 +28548,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>7</v>
       </c>
@@ -28533,7 +28580,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>4</v>
       </c>
@@ -28565,7 +28612,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>8</v>
       </c>
@@ -28597,7 +28644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>2</v>
       </c>
@@ -28626,7 +28673,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>14</v>
       </c>
@@ -28655,7 +28702,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>8</v>
       </c>
@@ -28687,7 +28734,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>9</v>
       </c>
@@ -28719,7 +28766,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>6</v>
       </c>
@@ -28751,7 +28798,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>4</v>
       </c>
@@ -28783,7 +28830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>15</v>
       </c>
@@ -28815,7 +28862,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>10</v>
       </c>
@@ -28847,7 +28894,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>12</v>
       </c>
@@ -28879,7 +28926,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>11</v>
       </c>
@@ -28911,7 +28958,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="568" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>7</v>
       </c>
@@ -28937,7 +28984,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="569" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>13</v>
       </c>
@@ -28969,7 +29016,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>3</v>
       </c>
@@ -29001,7 +29048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>4</v>
       </c>
@@ -29030,7 +29077,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>10</v>
       </c>
@@ -29059,7 +29106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>2</v>
       </c>
@@ -29088,7 +29135,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>5</v>
       </c>
@@ -29117,7 +29164,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>7</v>
       </c>
@@ -29146,7 +29193,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>6</v>
       </c>
@@ -29175,7 +29222,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>9</v>
       </c>
@@ -29204,7 +29251,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>3</v>
       </c>
@@ -29233,7 +29280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>8</v>
       </c>
@@ -29265,7 +29312,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>4</v>
       </c>
@@ -29294,7 +29341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>10</v>
       </c>
@@ -29323,7 +29370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>2</v>
       </c>
@@ -29352,7 +29399,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>5</v>
       </c>
@@ -29381,7 +29428,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>7</v>
       </c>
@@ -29410,7 +29457,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>6</v>
       </c>
@@ -29439,7 +29486,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>9</v>
       </c>
@@ -29468,7 +29515,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3</v>
       </c>
@@ -29497,7 +29544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>8</v>
       </c>
@@ -29529,7 +29576,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>6</v>
       </c>
@@ -29558,7 +29605,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>7</v>
       </c>
@@ -29587,7 +29634,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>9</v>
       </c>
@@ -29616,7 +29663,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>10</v>
       </c>
@@ -29645,7 +29692,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="593" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>2</v>
       </c>
@@ -29674,7 +29721,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="594" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>8</v>
       </c>
@@ -29703,7 +29750,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="595" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>5</v>
       </c>
@@ -29732,7 +29779,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="596" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>4</v>
       </c>
@@ -29761,7 +29808,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="597" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>3</v>
       </c>
@@ -29790,7 +29837,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="598" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>6</v>
       </c>
@@ -29819,7 +29866,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="599" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>7</v>
       </c>
@@ -29848,7 +29895,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="600" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>9</v>
       </c>
@@ -29877,7 +29924,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="601" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>10</v>
       </c>
@@ -29906,7 +29953,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="602" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>2</v>
       </c>
@@ -29935,7 +29982,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="603" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>8</v>
       </c>
@@ -29964,7 +30011,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="604" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>5</v>
       </c>
@@ -29993,7 +30040,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="605" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>4</v>
       </c>
@@ -30022,7 +30069,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="606" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>3</v>
       </c>
@@ -30051,7 +30098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="607" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>2</v>
       </c>
@@ -30080,7 +30127,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="608" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>6</v>
       </c>
@@ -30112,7 +30159,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>5</v>
       </c>
@@ -30144,7 +30191,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>7</v>
       </c>
@@ -30176,7 +30223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>4</v>
       </c>
@@ -30205,7 +30252,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>2</v>
       </c>
@@ -30234,7 +30281,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>6</v>
       </c>
@@ -30266,7 +30313,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>5</v>
       </c>
@@ -30298,7 +30345,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>7</v>
       </c>
@@ -30327,7 +30374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>4</v>
       </c>
@@ -30356,7 +30403,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>10</v>
       </c>
@@ -30385,7 +30432,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>3</v>
       </c>
@@ -30414,7 +30461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>6</v>
       </c>
@@ -30443,7 +30490,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>18</v>
       </c>
@@ -30472,7 +30519,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>2</v>
       </c>
@@ -30501,7 +30548,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>15</v>
       </c>
@@ -30530,7 +30577,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>17</v>
       </c>
@@ -30559,7 +30606,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>16</v>
       </c>
@@ -30588,7 +30635,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>4</v>
       </c>
@@ -30617,7 +30664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>21</v>
       </c>
@@ -30646,7 +30693,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>19</v>
       </c>
@@ -30675,7 +30722,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>20</v>
       </c>
@@ -30704,7 +30751,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>14</v>
       </c>
@@ -30733,7 +30780,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>11</v>
       </c>
@@ -30762,7 +30809,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>12</v>
       </c>
@@ -30791,7 +30838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="632" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>13</v>
       </c>
@@ -30820,7 +30867,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="633" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>5</v>
       </c>
@@ -30852,7 +30899,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="634" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>7</v>
       </c>
@@ -30884,7 +30931,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="635" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>3</v>
       </c>
@@ -30913,7 +30960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="636" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>6</v>
       </c>
@@ -30942,7 +30989,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>18</v>
       </c>
@@ -30971,7 +31018,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>2</v>
       </c>
@@ -31000,7 +31047,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>15</v>
       </c>
@@ -31029,7 +31076,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>17</v>
       </c>
@@ -31058,7 +31105,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>16</v>
       </c>
@@ -31084,7 +31131,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>10</v>
       </c>
@@ -31113,7 +31160,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>4</v>
       </c>
@@ -31142,7 +31189,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>21</v>
       </c>
@@ -31171,7 +31218,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>19</v>
       </c>
@@ -31200,7 +31247,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>20</v>
       </c>
@@ -31229,7 +31276,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>14</v>
       </c>
@@ -31258,7 +31305,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>11</v>
       </c>
@@ -31287,7 +31334,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>12</v>
       </c>
@@ -31316,7 +31363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>13</v>
       </c>
@@ -31345,7 +31392,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>5</v>
       </c>
@@ -31377,7 +31424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>7</v>
       </c>
@@ -31409,7 +31456,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>3</v>
       </c>
@@ -31438,7 +31485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>8</v>
       </c>
@@ -31467,7 +31514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>13</v>
       </c>
@@ -31496,7 +31543,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>11</v>
       </c>
@@ -31525,7 +31572,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="657" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>12</v>
       </c>
@@ -31554,7 +31601,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="658" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>2</v>
       </c>
@@ -31583,7 +31630,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="659" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>10</v>
       </c>
@@ -31612,7 +31659,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="660" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>5</v>
       </c>
@@ -31641,7 +31688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="661" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>4</v>
       </c>
@@ -31670,7 +31717,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="662" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>9</v>
       </c>
@@ -31699,7 +31746,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="663" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>14</v>
       </c>
@@ -31728,7 +31775,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="664" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>7</v>
       </c>
@@ -31757,7 +31804,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="665" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>6</v>
       </c>
@@ -31786,7 +31833,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="666" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3</v>
       </c>
@@ -31812,7 +31859,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="667" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>8</v>
       </c>
@@ -31841,7 +31888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="668" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>13</v>
       </c>
@@ -31870,7 +31917,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="669" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>11</v>
       </c>
@@ -31900,7 +31947,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="670" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>12</v>
       </c>
@@ -31929,7 +31976,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="671" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>2</v>
       </c>
@@ -31955,7 +32002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="672" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>10</v>
       </c>
@@ -31984,7 +32031,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>5</v>
       </c>
@@ -32013,7 +32060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>4</v>
       </c>
@@ -32042,7 +32089,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>9</v>
       </c>
@@ -32071,7 +32118,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>14</v>
       </c>
@@ -32100,7 +32147,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>7</v>
       </c>
@@ -32129,7 +32176,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>6</v>
       </c>
@@ -32158,7 +32205,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>7</v>
       </c>
@@ -32190,7 +32237,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>6</v>
       </c>
@@ -32222,7 +32269,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3</v>
       </c>
@@ -32254,7 +32301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>8</v>
       </c>
@@ -32286,7 +32333,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>2</v>
       </c>
@@ -32315,7 +32362,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>5</v>
       </c>
@@ -32347,7 +32394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>4</v>
       </c>
@@ -32379,7 +32426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>7</v>
       </c>
@@ -32411,7 +32458,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>6</v>
       </c>
@@ -32443,7 +32490,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>3</v>
       </c>
@@ -32475,7 +32522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>8</v>
       </c>
@@ -32507,7 +32554,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>2</v>
       </c>
@@ -32536,7 +32583,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>5</v>
       </c>
@@ -32565,7 +32612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>4</v>
       </c>
@@ -32597,7 +32644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>2</v>
       </c>
@@ -32626,7 +32673,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>3</v>
       </c>
@@ -32655,7 +32702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>2</v>
       </c>
@@ -32684,7 +32731,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>5</v>
       </c>
@@ -32713,7 +32760,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="697" spans="1:12" ht="128" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" ht="128" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>12</v>
       </c>
@@ -32742,7 +32789,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>17</v>
       </c>
@@ -32771,7 +32818,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>13</v>
       </c>
@@ -32800,7 +32847,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>15</v>
       </c>
@@ -32829,7 +32876,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="701" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>16</v>
       </c>
@@ -32858,7 +32905,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="702" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>8</v>
       </c>
@@ -32887,7 +32934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="703" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>10</v>
       </c>
@@ -32916,7 +32963,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="704" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>14</v>
       </c>
@@ -32945,7 +32992,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="705" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>11</v>
       </c>
@@ -32974,7 +33021,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="706" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>6</v>
       </c>
@@ -33003,7 +33050,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="707" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>3</v>
       </c>
@@ -33032,7 +33079,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="708" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>7</v>
       </c>
@@ -33061,7 +33108,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="709" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>9</v>
       </c>
@@ -33090,7 +33137,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="710" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>4</v>
       </c>
@@ -33119,7 +33166,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="711" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>2</v>
       </c>
@@ -33148,7 +33195,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="712" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>5</v>
       </c>
@@ -33180,7 +33227,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="713" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>6</v>
       </c>
@@ -33212,7 +33259,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="714" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>4</v>
       </c>
@@ -33247,7 +33294,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="715" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>2</v>
       </c>
@@ -33276,7 +33323,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="716" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>5</v>
       </c>
@@ -33308,7 +33355,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="717" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>6</v>
       </c>
@@ -33340,7 +33387,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="718" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>4</v>
       </c>
@@ -33375,7 +33422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="719" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>2</v>
       </c>
@@ -33404,7 +33451,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="720" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>5</v>
       </c>
@@ -33436,7 +33483,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="721" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>6</v>
       </c>
@@ -33468,7 +33515,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="722" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>4</v>
       </c>
@@ -33503,7 +33550,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="723" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>2</v>
       </c>
@@ -33532,7 +33579,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="724" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>5</v>
       </c>
@@ -33564,7 +33611,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="725" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>6</v>
       </c>
@@ -33596,7 +33643,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="726" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>4</v>
       </c>
@@ -33631,7 +33678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="727" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3</v>
       </c>
@@ -33660,7 +33707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="728" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>2</v>
       </c>
@@ -33689,7 +33736,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="729" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>6</v>
       </c>
@@ -33721,7 +33768,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="730" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>5</v>
       </c>
@@ -33753,7 +33800,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="731" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>4</v>
       </c>
@@ -33785,7 +33832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="732" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3</v>
       </c>
@@ -33814,7 +33861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="733" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>2</v>
       </c>
@@ -33843,7 +33890,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="734" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>6</v>
       </c>
@@ -33875,7 +33922,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="735" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>5</v>
       </c>
@@ -33907,7 +33954,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="736" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>4</v>
       </c>
@@ -33939,7 +33986,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="737" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>2</v>
       </c>
@@ -33968,7 +34015,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="738" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>5</v>
       </c>
@@ -33997,7 +34044,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="739" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>6</v>
       </c>
@@ -34026,7 +34073,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="740" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>3</v>
       </c>
@@ -34055,7 +34102,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="741" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>4</v>
       </c>
@@ -34090,7 +34137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="742" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>6</v>
       </c>
@@ -34119,7 +34166,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="743" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3</v>
       </c>
@@ -34148,7 +34195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="744" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>5</v>
       </c>
@@ -34177,7 +34224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="745" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>2</v>
       </c>
@@ -34206,7 +34253,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="746" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>6</v>
       </c>
@@ -34235,7 +34282,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="747" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>3</v>
       </c>
@@ -34264,7 +34311,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="748" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>5</v>
       </c>
@@ -34293,7 +34340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="749" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>2</v>
       </c>
@@ -34322,7 +34369,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="750" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>2</v>
       </c>
@@ -34351,7 +34398,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="751" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>10</v>
       </c>
@@ -34380,7 +34427,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="752" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>9</v>
       </c>
@@ -34412,7 +34459,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="753" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>2</v>
       </c>
@@ -34441,7 +34488,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="754" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>10</v>
       </c>
@@ -34470,7 +34517,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="755" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>9</v>
       </c>
@@ -34502,7 +34549,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="756" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3</v>
       </c>
@@ -34534,7 +34581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="757" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>2</v>
       </c>
@@ -34563,7 +34610,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="758" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>5</v>
       </c>
@@ -34595,7 +34642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="759" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>7</v>
       </c>
@@ -34624,7 +34671,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="760" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>8</v>
       </c>
@@ -34653,7 +34700,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="761" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>6</v>
       </c>
@@ -34682,7 +34729,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="762" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>4</v>
       </c>
@@ -34714,7 +34761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="763" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>3</v>
       </c>
@@ -34746,7 +34793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="764" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>2</v>
       </c>
@@ -34775,7 +34822,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="765" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>5</v>
       </c>
@@ -34807,7 +34854,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="766" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>7</v>
       </c>
@@ -34836,7 +34883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="767" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>8</v>
       </c>
@@ -34865,7 +34912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="768" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>6</v>
       </c>
@@ -34894,7 +34941,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="769" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>4</v>
       </c>
@@ -34926,7 +34973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="770" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>10</v>
       </c>
@@ -34958,7 +35005,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="771" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>8</v>
       </c>
@@ -34990,7 +35037,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="772" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>23</v>
       </c>
@@ -35019,7 +35066,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="773" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>16</v>
       </c>
@@ -35051,7 +35098,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="774" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>17</v>
       </c>
@@ -35083,7 +35130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="775" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>25</v>
       </c>
@@ -35115,7 +35162,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="776" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>24</v>
       </c>
@@ -35147,7 +35194,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="777" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>18</v>
       </c>
@@ -35179,7 +35226,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="778" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>26</v>
       </c>
@@ -35208,7 +35255,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="779" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>3</v>
       </c>
@@ -35240,7 +35287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="780" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>9</v>
       </c>
@@ -35272,7 +35319,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="781" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>11</v>
       </c>
@@ -35304,7 +35351,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="782" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>12</v>
       </c>
@@ -35336,7 +35383,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="783" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>2</v>
       </c>
@@ -35365,7 +35412,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="784" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>13</v>
       </c>
@@ -35394,7 +35441,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="785" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>22</v>
       </c>
@@ -35426,7 +35473,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="786" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>19</v>
       </c>
@@ -35458,7 +35505,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="787" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>15</v>
       </c>
@@ -35490,7 +35537,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="788" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>21</v>
       </c>
@@ -35519,7 +35566,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="789" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>20</v>
       </c>
@@ -35548,7 +35595,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="790" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>14</v>
       </c>
@@ -35580,7 +35627,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="791" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>5</v>
       </c>
@@ -35612,7 +35659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="792" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>6</v>
       </c>
@@ -35647,7 +35694,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="793" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>7</v>
       </c>
@@ -35682,7 +35729,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="794" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>4</v>
       </c>
@@ -35714,7 +35761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="795" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>10</v>
       </c>
@@ -35746,7 +35793,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="796" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>8</v>
       </c>
@@ -35778,7 +35825,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="797" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>23</v>
       </c>
@@ -35807,7 +35854,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="798" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>16</v>
       </c>
@@ -35839,7 +35886,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="799" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>17</v>
       </c>
@@ -35871,7 +35918,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="800" spans="1:13" hidden="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>25</v>
       </c>
@@ -35903,7 +35950,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="801" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>24</v>
       </c>
@@ -35935,7 +35982,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="802" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>18</v>
       </c>
@@ -35967,7 +36014,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="803" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>26</v>
       </c>
@@ -35996,7 +36043,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="804" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>3</v>
       </c>
@@ -36028,7 +36075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="805" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>9</v>
       </c>
@@ -36060,7 +36107,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="806" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>11</v>
       </c>
@@ -36092,7 +36139,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="807" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>12</v>
       </c>
@@ -36124,7 +36171,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="808" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>2</v>
       </c>
@@ -36153,7 +36200,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="809" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>13</v>
       </c>
@@ -36182,7 +36229,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="810" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>22</v>
       </c>
@@ -36214,7 +36261,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="811" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>19</v>
       </c>
@@ -36246,7 +36293,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="812" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>15</v>
       </c>
@@ -36278,7 +36325,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="813" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>21</v>
       </c>
@@ -36307,7 +36354,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="814" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>20</v>
       </c>
@@ -36336,7 +36383,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="815" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>14</v>
       </c>
@@ -36368,7 +36415,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="816" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>5</v>
       </c>
@@ -36400,7 +36447,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="817" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>6</v>
       </c>
@@ -36432,7 +36479,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="818" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>7</v>
       </c>
@@ -36467,7 +36514,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="819" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>4</v>
       </c>
@@ -36499,7 +36546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="820" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>21</v>
       </c>
@@ -36526,7 +36573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="821" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>3</v>
       </c>
@@ -36555,7 +36602,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="822" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>20</v>
       </c>
@@ -36584,7 +36631,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="823" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>23</v>
       </c>
@@ -36613,7 +36660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="824" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>24</v>
       </c>
@@ -36642,7 +36689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="825" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>2</v>
       </c>
@@ -36671,7 +36718,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="826" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>5</v>
       </c>
@@ -36700,7 +36747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="827" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>15</v>
       </c>
@@ -36729,7 +36776,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="828" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>4</v>
       </c>
@@ -36758,7 +36805,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="829" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>14</v>
       </c>
@@ -36787,7 +36834,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="830" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>13</v>
       </c>
@@ -36816,7 +36863,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="831" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>7</v>
       </c>
@@ -36845,7 +36892,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="832" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>9</v>
       </c>
@@ -36874,7 +36921,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="833" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>8</v>
       </c>
@@ -36903,7 +36950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="834" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>6</v>
       </c>
@@ -36932,7 +36979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="835" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>11</v>
       </c>
@@ -36961,7 +37008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="836" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>19</v>
       </c>
@@ -36990,7 +37037,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="837" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>10</v>
       </c>
@@ -37019,7 +37066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="838" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>16</v>
       </c>
@@ -37048,7 +37095,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="839" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>17</v>
       </c>
@@ -37077,7 +37124,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="840" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>18</v>
       </c>
@@ -37106,7 +37153,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="841" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>12</v>
       </c>
@@ -37135,7 +37182,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="842" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>22</v>
       </c>
@@ -37164,7 +37211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="843" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>7</v>
       </c>
@@ -37193,7 +37240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="844" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>3</v>
       </c>
@@ -37222,7 +37269,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="845" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>6</v>
       </c>
@@ -37251,7 +37298,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="846" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>8</v>
       </c>
@@ -37280,7 +37327,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="847" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>2</v>
       </c>
@@ -37309,7 +37356,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="848" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>5</v>
       </c>
@@ -37338,7 +37385,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="849" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>4</v>
       </c>
@@ -37367,7 +37414,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="850" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>7</v>
       </c>
@@ -37396,7 +37443,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="851" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>3</v>
       </c>
@@ -37425,7 +37472,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="852" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>6</v>
       </c>
@@ -37454,7 +37501,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="853" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>8</v>
       </c>
@@ -37483,7 +37530,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="854" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>2</v>
       </c>
@@ -37512,7 +37559,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="855" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A855">
         <v>5</v>
       </c>
@@ -37541,7 +37588,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="856" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A856">
         <v>4</v>
       </c>
@@ -37570,7 +37617,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="857" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A857">
         <v>3</v>
       </c>
@@ -37599,7 +37646,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="858" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A858">
         <v>2</v>
       </c>
@@ -37628,7 +37675,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="859" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A859">
         <v>6</v>
       </c>
@@ -37657,7 +37704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="860" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A860">
         <v>17</v>
       </c>
@@ -37686,7 +37733,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="861" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A861">
         <v>5</v>
       </c>
@@ -37715,7 +37762,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="862" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A862">
         <v>16</v>
       </c>
@@ -37744,7 +37791,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="863" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A863">
         <v>15</v>
       </c>
@@ -37773,7 +37820,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="864" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A864">
         <v>8</v>
       </c>
@@ -37802,7 +37849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="865" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A865">
         <v>10</v>
       </c>
@@ -37831,7 +37878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="866" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A866">
         <v>9</v>
       </c>
@@ -37860,7 +37907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="867" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A867">
         <v>7</v>
       </c>
@@ -37889,7 +37936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="868" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A868">
         <v>12</v>
       </c>
@@ -37918,7 +37965,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="869" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A869">
         <v>21</v>
       </c>
@@ -37947,7 +37994,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="870" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A870">
         <v>11</v>
       </c>
@@ -37976,7 +38023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="871" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A871">
         <v>18</v>
       </c>
@@ -38005,7 +38052,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="872" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A872">
         <v>19</v>
       </c>
@@ -38034,7 +38081,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="873" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A873">
         <v>20</v>
       </c>
@@ -38063,7 +38110,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="874" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A874">
         <v>13</v>
       </c>
@@ -38092,7 +38139,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="875" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A875">
         <v>14</v>
       </c>
@@ -38121,7 +38168,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="876" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A876">
         <v>4</v>
       </c>
@@ -38153,7 +38200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="877" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A877">
         <v>6</v>
       </c>
@@ -38182,7 +38229,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="878" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A878">
         <v>14</v>
       </c>
@@ -38211,7 +38258,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="879" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A879">
         <v>16</v>
       </c>
@@ -38240,7 +38287,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="880" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A880">
         <v>13</v>
       </c>
@@ -38269,7 +38316,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="881" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A881">
         <v>11</v>
       </c>
@@ -38298,7 +38345,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="882" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A882">
         <v>3</v>
       </c>
@@ -38327,7 +38374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="883" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A883">
         <v>10</v>
       </c>
@@ -38356,7 +38403,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="884" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A884">
         <v>15</v>
       </c>
@@ -38385,7 +38432,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="885" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A885">
         <v>12</v>
       </c>
@@ -38414,7 +38461,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="886" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A886">
         <v>2</v>
       </c>
@@ -38443,7 +38490,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="887" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A887">
         <v>9</v>
       </c>
@@ -38472,7 +38519,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="888" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A888">
         <v>7</v>
       </c>
@@ -38507,7 +38554,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="889" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A889">
         <v>8</v>
       </c>
@@ -38542,7 +38589,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="890" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A890">
         <v>5</v>
       </c>
@@ -38571,7 +38618,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="891" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A891">
         <v>4</v>
       </c>
@@ -38600,7 +38647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="892" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A892">
         <v>6</v>
       </c>
@@ -38629,7 +38676,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="893" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A893">
         <v>14</v>
       </c>
@@ -38658,7 +38705,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="894" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A894">
         <v>16</v>
       </c>
@@ -38687,7 +38734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="895" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A895">
         <v>13</v>
       </c>
@@ -38716,7 +38763,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="896" spans="1:28" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A896">
         <v>11</v>
       </c>
@@ -38764,7 +38811,7 @@
       <c r="AA896"/>
       <c r="AB896"/>
     </row>
-    <row r="897" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A897">
         <v>3</v>
       </c>
@@ -38793,7 +38840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="898" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A898">
         <v>10</v>
       </c>
@@ -38822,7 +38869,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="899" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A899">
         <v>15</v>
       </c>
@@ -38851,7 +38898,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="900" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A900">
         <v>12</v>
       </c>
@@ -38880,7 +38927,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="901" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A901">
         <v>2</v>
       </c>
@@ -38909,7 +38956,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="902" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A902">
         <v>9</v>
       </c>
@@ -38938,7 +38985,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="903" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A903">
         <v>7</v>
       </c>
@@ -38988,7 +39035,7 @@
       <c r="AA903" s="2"/>
       <c r="AB903" s="2"/>
     </row>
-    <row r="904" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A904">
         <v>8</v>
       </c>
@@ -39023,7 +39070,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="905" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A905">
         <v>5</v>
       </c>
@@ -39052,7 +39099,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="906" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A906">
         <v>4</v>
       </c>
@@ -39081,7 +39128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="907" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A907">
         <v>5</v>
       </c>
@@ -39110,7 +39157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="908" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A908">
         <v>2</v>
       </c>
@@ -39139,7 +39186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="909" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A909">
         <v>3</v>
       </c>
@@ -39168,7 +39215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="910" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A910">
         <v>4</v>
       </c>
@@ -39200,7 +39247,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="911" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A911">
         <v>6</v>
       </c>
@@ -39229,7 +39276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="912" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A912">
         <v>5</v>
       </c>
@@ -39258,7 +39305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="913" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A913">
         <v>2</v>
       </c>
@@ -39287,7 +39334,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="914" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A914">
         <v>3</v>
       </c>
@@ -39316,7 +39363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="915" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A915">
         <v>4</v>
       </c>
@@ -39348,7 +39395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="916" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A916">
         <v>3</v>
       </c>
@@ -39377,7 +39424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="917" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A917">
         <v>2</v>
       </c>
@@ -39406,7 +39453,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="918" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A918">
         <v>5</v>
       </c>
@@ -39438,7 +39485,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="919" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A919">
         <v>7</v>
       </c>
@@ -39467,7 +39514,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="920" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A920">
         <v>8</v>
       </c>
@@ -39496,7 +39543,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="921" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A921">
         <v>6</v>
       </c>
@@ -39525,7 +39572,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="922" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A922">
         <v>4</v>
       </c>
@@ -39557,7 +39604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="923" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A923">
         <v>3</v>
       </c>
@@ -39586,7 +39633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="924" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A924">
         <v>2</v>
       </c>
@@ -39615,7 +39662,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="925" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A925">
         <v>5</v>
       </c>
@@ -39647,7 +39694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="926" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A926">
         <v>7</v>
       </c>
@@ -39676,7 +39723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="927" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A927">
         <v>8</v>
       </c>
@@ -39705,7 +39752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="928" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A928">
         <v>6</v>
       </c>
@@ -39734,7 +39781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="929" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A929">
         <v>4</v>
       </c>
@@ -39766,7 +39813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="930" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A930">
         <v>2</v>
       </c>
@@ -39795,7 +39842,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="931" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A931">
         <v>12</v>
       </c>
@@ -39827,7 +39874,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="932" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A932">
         <v>2</v>
       </c>
@@ -39856,7 +39903,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="933" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A933">
         <v>46</v>
       </c>
@@ -39885,7 +39932,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="934" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A934">
         <v>38</v>
       </c>
@@ -39914,7 +39961,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="935" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A935">
         <v>39</v>
       </c>
@@ -39943,7 +39990,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="936" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A936">
         <v>31</v>
       </c>
@@ -39972,7 +40019,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="937" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A937">
         <v>33</v>
       </c>
@@ -40001,7 +40048,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="938" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A938">
         <v>34</v>
       </c>
@@ -40030,7 +40077,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="939" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A939">
         <v>40</v>
       </c>
@@ -40059,7 +40106,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="940" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A940">
         <v>41</v>
       </c>
@@ -40088,7 +40135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="941" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A941">
         <v>28</v>
       </c>
@@ -40117,7 +40164,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="942" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A942">
         <v>27</v>
       </c>
@@ -40146,7 +40193,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="943" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A943">
         <v>4</v>
       </c>
@@ -40175,7 +40222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="944" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A944">
         <v>68</v>
       </c>
@@ -40204,7 +40251,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="945" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A945">
         <v>36</v>
       </c>
@@ -40233,7 +40280,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="946" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A946">
         <v>47</v>
       </c>
@@ -40262,7 +40309,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="947" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A947">
         <v>67</v>
       </c>
@@ -40291,7 +40338,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="948" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A948">
         <v>16</v>
       </c>
@@ -40320,7 +40367,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="949" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A949">
         <v>64</v>
       </c>
@@ -40349,7 +40396,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="950" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A950">
         <v>9</v>
       </c>
@@ -40378,7 +40425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="951" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A951">
         <v>17</v>
       </c>
@@ -40407,7 +40454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="952" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A952">
         <v>8</v>
       </c>
@@ -40436,7 +40483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="953" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A953">
         <v>29</v>
       </c>
@@ -40465,7 +40512,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="954" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A954">
         <v>3</v>
       </c>
@@ -40513,7 +40560,7 @@
       <c r="AA954"/>
       <c r="AB954"/>
     </row>
-    <row r="955" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A955">
         <v>2</v>
       </c>
@@ -40561,7 +40608,7 @@
       <c r="AA955"/>
       <c r="AB955"/>
     </row>
-    <row r="956" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A956">
         <v>7</v>
       </c>
@@ -40609,7 +40656,7 @@
       <c r="AA956"/>
       <c r="AB956"/>
     </row>
-    <row r="957" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A957">
         <v>42</v>
       </c>
@@ -40638,7 +40685,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="958" spans="1:28" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A958">
         <v>61</v>
       </c>
@@ -40686,7 +40733,7 @@
       <c r="AA958"/>
       <c r="AB958"/>
     </row>
-    <row r="959" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A959">
         <v>55</v>
       </c>
@@ -40715,7 +40762,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="960" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A960">
         <v>32</v>
       </c>
@@ -40744,7 +40791,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="961" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A961">
         <v>58</v>
       </c>
@@ -40773,7 +40820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="962" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A962">
         <v>49</v>
       </c>
@@ -40802,7 +40849,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="963" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A963">
         <v>54</v>
       </c>
@@ -40831,7 +40878,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="964" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A964">
         <v>35</v>
       </c>
@@ -40860,7 +40907,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="965" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A965">
         <v>30</v>
       </c>
@@ -40889,7 +40936,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="966" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A966">
         <v>37</v>
       </c>
@@ -40937,7 +40984,7 @@
       <c r="AA966"/>
       <c r="AB966"/>
     </row>
-    <row r="967" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A967">
         <v>11</v>
       </c>
@@ -40985,7 +41032,7 @@
       <c r="AA967"/>
       <c r="AB967"/>
     </row>
-    <row r="968" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A968">
         <v>22</v>
       </c>
@@ -41033,7 +41080,7 @@
       <c r="AA968"/>
       <c r="AB968"/>
     </row>
-    <row r="969" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A969">
         <v>24</v>
       </c>
@@ -41081,7 +41128,7 @@
       <c r="AA969"/>
       <c r="AB969"/>
     </row>
-    <row r="970" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A970">
         <v>10</v>
       </c>
@@ -41129,7 +41176,7 @@
       <c r="AA970"/>
       <c r="AB970"/>
     </row>
-    <row r="971" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A971">
         <v>43</v>
       </c>
@@ -41177,7 +41224,7 @@
       <c r="AA971"/>
       <c r="AB971"/>
     </row>
-    <row r="972" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A972">
         <v>12</v>
       </c>
@@ -41225,7 +41272,7 @@
       <c r="AA972"/>
       <c r="AB972"/>
     </row>
-    <row r="973" spans="1:28" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:28" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A973">
         <v>14</v>
       </c>
@@ -41273,7 +41320,7 @@
       <c r="AA973"/>
       <c r="AB973"/>
     </row>
-    <row r="974" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A974">
         <v>48</v>
       </c>
@@ -41302,7 +41349,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="975" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A975">
         <v>45</v>
       </c>
@@ -41331,7 +41378,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="976" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A976">
         <v>44</v>
       </c>
@@ -41360,7 +41407,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="977" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A977">
         <v>5</v>
       </c>
@@ -41389,7 +41436,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="978" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A978">
         <v>66</v>
       </c>
@@ -41418,7 +41465,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="979" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A979">
         <v>13</v>
       </c>
@@ -41447,7 +41494,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="980" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A980">
         <v>15</v>
       </c>
@@ -41476,7 +41523,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="981" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A981">
         <v>69</v>
       </c>
@@ -41505,7 +41552,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="982" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A982">
         <v>6</v>
       </c>
@@ -41534,7 +41581,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="983" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A983">
         <v>62</v>
       </c>
@@ -41563,7 +41610,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="984" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A984">
         <v>63</v>
       </c>
@@ -41592,7 +41639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="985" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A985">
         <v>56</v>
       </c>
@@ -41621,7 +41668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="986" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A986">
         <v>57</v>
       </c>
@@ -41650,7 +41697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="987" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A987">
         <v>59</v>
       </c>
@@ -41679,7 +41726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="988" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A988">
         <v>60</v>
       </c>
@@ -41708,7 +41755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="989" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A989">
         <v>50</v>
       </c>
@@ -41737,7 +41784,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="990" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A990">
         <v>51</v>
       </c>
@@ -41766,7 +41813,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="991" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A991">
         <v>53</v>
       </c>
@@ -41795,7 +41842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="992" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A992">
         <v>52</v>
       </c>
@@ -41824,7 +41871,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="993" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A993">
         <v>65</v>
       </c>
@@ -41853,7 +41900,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="994" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A994">
         <v>26</v>
       </c>
@@ -41882,7 +41929,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="995" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A995">
         <v>18</v>
       </c>
@@ -41914,7 +41961,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="996" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A996">
         <v>23</v>
       </c>
@@ -41946,7 +41993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="997" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A997">
         <v>25</v>
       </c>
@@ -41978,7 +42025,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="998" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A998">
         <v>20</v>
       </c>
@@ -42010,7 +42057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="999" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A999">
         <v>21</v>
       </c>
@@ -42042,7 +42089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1000" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1000">
         <v>19</v>
       </c>
@@ -42094,7 +42141,7 @@
       <c r="AA1000" s="12"/>
       <c r="AB1000" s="12"/>
     </row>
-    <row r="1001" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1001">
         <v>46</v>
       </c>
@@ -42123,7 +42170,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="1002" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1002">
         <v>38</v>
       </c>
@@ -42152,7 +42199,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1003" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1003">
         <v>39</v>
       </c>
@@ -42181,7 +42228,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1004" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1004">
         <v>31</v>
       </c>
@@ -42210,7 +42257,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1005" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1005">
         <v>33</v>
       </c>
@@ -42239,7 +42286,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1006" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1006">
         <v>34</v>
       </c>
@@ -42268,7 +42315,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1007" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1007">
         <v>40</v>
       </c>
@@ -42297,7 +42344,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1008" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1008">
         <v>41</v>
       </c>
@@ -42326,7 +42373,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1009" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1009">
         <v>28</v>
       </c>
@@ -42355,7 +42402,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="1010" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1010">
         <v>27</v>
       </c>
@@ -42384,7 +42431,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="1011" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1011">
         <v>4</v>
       </c>
@@ -42414,7 +42461,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1012" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1012">
         <v>68</v>
       </c>
@@ -42443,7 +42490,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="1013" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1013">
         <v>36</v>
       </c>
@@ -42472,7 +42519,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1014" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1014">
         <v>47</v>
       </c>
@@ -42502,7 +42549,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="1015" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1015">
         <v>67</v>
       </c>
@@ -42531,7 +42578,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="1016" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1016">
         <v>16</v>
       </c>
@@ -42560,7 +42607,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1017" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1017">
         <v>64</v>
       </c>
@@ -42589,7 +42636,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="1018" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1018">
         <v>9</v>
       </c>
@@ -42618,7 +42665,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1019" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1019">
         <v>17</v>
       </c>
@@ -42647,7 +42694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1020" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1020">
         <v>8</v>
       </c>
@@ -42676,7 +42723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1021" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1021">
         <v>29</v>
       </c>
@@ -42705,7 +42752,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1022" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1022">
         <v>3</v>
       </c>
@@ -42734,7 +42781,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="1023" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1023">
         <v>2</v>
       </c>
@@ -42760,7 +42807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1024" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1024">
         <v>7</v>
       </c>
@@ -42789,7 +42836,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="1025" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1025">
         <v>42</v>
       </c>
@@ -42818,7 +42865,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1026" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1026">
         <v>61</v>
       </c>
@@ -42847,7 +42894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1027" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1027">
         <v>55</v>
       </c>
@@ -42876,7 +42923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1028" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1028">
         <v>32</v>
       </c>
@@ -42905,7 +42952,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1029" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1029">
         <v>58</v>
       </c>
@@ -42934,7 +42981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1030" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1030">
         <v>49</v>
       </c>
@@ -42963,7 +43010,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="1031" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1031">
         <v>54</v>
       </c>
@@ -42992,7 +43039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1032" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1032">
         <v>35</v>
       </c>
@@ -43021,7 +43068,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1033" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1033">
         <v>30</v>
       </c>
@@ -43050,7 +43097,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1034" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1034">
         <v>37</v>
       </c>
@@ -43079,7 +43126,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1035" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1035">
         <v>11</v>
       </c>
@@ -43108,7 +43155,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1036" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1036">
         <v>22</v>
       </c>
@@ -43137,7 +43184,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1037" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1037">
         <v>24</v>
       </c>
@@ -43166,7 +43213,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1038" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1038">
         <v>10</v>
       </c>
@@ -43195,7 +43242,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="1039" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1039">
         <v>43</v>
       </c>
@@ -43224,7 +43271,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1040" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1040">
         <v>12</v>
       </c>
@@ -43253,7 +43300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1041" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1041">
         <v>14</v>
       </c>
@@ -43282,7 +43329,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1042" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1042">
         <v>48</v>
       </c>
@@ -43311,7 +43358,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="1043" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1043">
         <v>45</v>
       </c>
@@ -43340,7 +43387,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="1044" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1044">
         <v>44</v>
       </c>
@@ -43369,7 +43416,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="1045" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1045">
         <v>5</v>
       </c>
@@ -43398,7 +43445,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1046" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1046">
         <v>66</v>
       </c>
@@ -43427,7 +43474,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="1047" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1047">
         <v>13</v>
       </c>
@@ -43456,7 +43503,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1048" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1048">
         <v>15</v>
       </c>
@@ -43485,7 +43532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1049" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1049">
         <v>69</v>
       </c>
@@ -43514,7 +43561,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="1050" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1050">
         <v>6</v>
       </c>
@@ -43543,7 +43590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1051" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1051">
         <v>62</v>
       </c>
@@ -43572,7 +43619,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1052" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1052">
         <v>63</v>
       </c>
@@ -43601,7 +43648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1053" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1053">
         <v>56</v>
       </c>
@@ -43630,7 +43677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1054" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1054">
         <v>57</v>
       </c>
@@ -43659,7 +43706,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1055" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1055">
         <v>59</v>
       </c>
@@ -43688,7 +43735,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1056" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1056">
         <v>60</v>
       </c>
@@ -43717,7 +43764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1057" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1057">
         <v>50</v>
       </c>
@@ -43746,7 +43793,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="1058" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1058">
         <v>51</v>
       </c>
@@ -43775,7 +43822,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="1059" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1059">
         <v>53</v>
       </c>
@@ -43804,7 +43851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1060" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1060">
         <v>52</v>
       </c>
@@ -43833,7 +43880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1061" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1061">
         <v>65</v>
       </c>
@@ -43862,7 +43909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1062" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1062">
         <v>26</v>
       </c>
@@ -43891,7 +43938,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="1063" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1063">
         <v>18</v>
       </c>
@@ -43923,7 +43970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1064" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1064">
         <v>23</v>
       </c>
@@ -43955,7 +44002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1065" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1065">
         <v>25</v>
       </c>
@@ -43987,7 +44034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1066" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1066">
         <v>20</v>
       </c>
@@ -44019,7 +44066,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1067" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1067">
         <v>21</v>
       </c>
@@ -44051,7 +44098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1068" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1068">
         <v>19</v>
       </c>
@@ -44101,7 +44148,7 @@
       <c r="AA1068" s="12"/>
       <c r="AB1068" s="12"/>
     </row>
-    <row r="1069" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F1069" t="s">
         <v>3074</v>
       </c>
@@ -44115,7 +44162,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="1070" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F1070" t="s">
         <v>3252</v>
       </c>
@@ -44126,7 +44173,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="1071" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F1071" t="s">
         <v>3249</v>
       </c>
@@ -44134,7 +44181,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1072" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F1072" t="s">
         <v>3246</v>
       </c>
@@ -44148,7 +44195,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="1073" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F1073" t="s">
         <v>3104</v>
       </c>
@@ -44159,7 +44206,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="1074" spans="5:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F1074" t="s">
         <v>3074</v>
       </c>
@@ -44170,28 +44217,13 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="1075" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="J1075" t="s">
-        <v>2376</v>
-      </c>
-    </row>
-    <row r="1080" spans="5:10" x14ac:dyDescent="0.2">
+    <row r="1080" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E1080" t="s">
         <v>3294</v>
       </c>
       <c r="F1080" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB1074" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="ext_crypt_neb"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB1074">
-      <sortCondition ref="D1:D1074"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB1074">
     <sortCondition ref="D2:D1074"/>
     <sortCondition ref="B2:B1074"/>
